--- a/项目任务/项目任务计划表.xlsx
+++ b/项目任务/项目任务计划表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能任务" sheetId="1" r:id="rId1"/>
+    <sheet name="CRM2.0.4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -191,8 +192,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+https://zp3g6y.axshare.com/#id=1ru7bp&amp;p=%E6%94%AF%E4%BB%98</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +356,34 @@
   </si>
   <si>
     <t>基本研发完成，功能待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整整体页面字体颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整打印报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity站点针对CRM1.0的网站做CRM2.0的跳转引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊小宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付：支付页布局调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1057,4 +1122,551 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
+        <v>43885</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43885</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>43886</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43886</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/项目任务/项目任务计划表.xlsx
+++ b/项目任务/项目任务计划表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能任务" sheetId="1" r:id="rId1"/>
     <sheet name="CRM2.0.4" sheetId="2" r:id="rId2"/>
+    <sheet name="CRM bug清理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +385,62 @@
   </si>
   <si>
     <t>订单支付：支付页布局调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.5.125:2829/zentao/bug-view-7848.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊小宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.5.125:2829/zentao/bug-view-8278.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.5.125:2829/zentao/bug-view-7917.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史学利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +477,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -460,17 +525,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1128,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1669,4 +1737,201 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="4" max="8" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7848</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8278</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7917</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>